--- a/Coding/SlimksSDDGennerator/generated_template.xlsx
+++ b/Coding/SlimksSDDGennerator/generated_template.xlsx
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="123">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -769,6 +769,24 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>ks23_SubstituteInput.jsp</t>
+  </si>
+  <si>
+    <t>JSP</t>
+  </si>
+  <si>
+    <t>KSDepartmentDS.java</t>
+  </si>
+  <si>
+    <t>KSListUserDS.java</t>
+  </si>
+  <si>
+    <t>KSSubstituteInputAF.java</t>
+  </si>
+  <si>
+    <t>KSSubstituteInputService.java</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1286,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="294">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top"/>
@@ -2141,9 +2159,6 @@
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4805,17 +4820,17 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="205" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C5" s="66" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>64</v>
@@ -4839,14 +4854,14 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="205" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="15" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>63</v>
@@ -4873,14 +4888,14 @@
         <v>3.0</v>
       </c>
       <c r="B7" s="205" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C7" s="66" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>63</v>
@@ -4907,14 +4922,14 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="205" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C8" s="66" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>63</v>
@@ -4941,14 +4956,14 @@
         <v>5.0</v>
       </c>
       <c r="B9" s="205" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C9" s="66" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="15" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>63</v>
@@ -4975,14 +4990,14 @@
         <v>6.0</v>
       </c>
       <c r="B10" s="205" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C10" s="66" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="15" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>63</v>
@@ -5009,14 +5024,14 @@
         <v>7.0</v>
       </c>
       <c r="B11" s="205" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C11" s="66" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="15" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>63</v>
@@ -5039,34 +5054,50 @@
       <c r="P11" s="72"/>
     </row>
     <row customFormat="1" ht="33.75" r="12" s="65" spans="1:16">
-      <c r="A12" s="19" t="n">
-        <v>8.0</v>
+      <c r="A12" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="B12" s="205" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="27"/>
+        <v>116</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="E12" s="15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+        <v>116</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="69" t="s">
+        <v>116</v>
+      </c>
       <c r="N12" s="70" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="O12" s="71" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P12" s="72"/>
     </row>
